--- a/biology/Zoologie/Anonymidae/Anonymidae.xlsx
+++ b/biology/Zoologie/Anonymidae/Anonymidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anonymidae sont une famille de vers plats marins, de la super-famille des Anonymoidea (sous-ordre des Cotylea, ordre des Polycladida).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,10 +553,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Famille des Anonymidae
-Le nom valide complet (avec auteur) de ce taxon est Anonymidae Lang, 1884[1].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (20 novembre 2023)[1], la famille des Anonymidae regroupe les genres suivants :
+          <t>Famille des Anonymidae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anonymidae Lang, 1884.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anonymidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anonymidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (20 novembre 2023), la famille des Anonymidae regroupe les genres suivants :
 genre Anonymus Lang, 1884
 genre Marcusia Hyman, 1953
 genre Simpliciplana Kaburaki, 1923</t>
